--- a/data/markers_for_extract/human_adaptation.xlsx
+++ b/data/markers_for_extract/human_adaptation.xlsx
@@ -29,12 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="589">
   <si>
     <t>Protein Type</t>
   </si>
@@ -63,7 +59,7 @@
     <t>https://doi.org/10.1007/s00705-019-04283-0</t>
   </si>
   <si>
-    <t xml:space="preserve">Furthermore, we found that the PB2-D701N and HA-G228S mutations both enhance the ability of the virus to replicate in vivo and in vitro and that the PB2-D701N substitution results in an expansion of viral tissue tropism. </t>
+    <t>Furthermore, we found that the PB2-D701N and HA-G228S mutations both enhance the ability of the virus to replicate in vivo and in vitro and that the PB2-D701N substitution results in an expansion of viral tissue tropism.</t>
   </si>
   <si>
     <t>222D(Human)</t>
@@ -1000,6 +996,9 @@
   </si>
   <si>
     <t>701N(Mammalian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furthermore, we found that the PB2-D701N and HA-G228S mutations both enhance the ability of the virus to replicate in vivo and in vitro and that the PB2-D701N substitution results in an expansion of viral tissue tropism. </t>
   </si>
   <si>
     <t>282E(Human)</t>
@@ -2823,8 +2822,8 @@
   <sheetPr/>
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="4"/>
@@ -4514,7 +4513,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" ht="55.5" spans="1:5">
@@ -4522,16 +4521,16 @@
         <v>290</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" ht="83.25" spans="1:5">
@@ -4539,16 +4538,16 @@
         <v>290</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" ht="41.65" spans="1:5">
@@ -4556,16 +4555,16 @@
         <v>290</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" ht="41.65" spans="1:5">
@@ -4573,16 +4572,16 @@
         <v>290</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" ht="55.5" spans="1:5">
@@ -4590,10 +4589,10 @@
         <v>290</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>251</v>
@@ -4607,7 +4606,7 @@
         <v>290</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>304</v>
@@ -4624,10 +4623,10 @@
         <v>290</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>251</v>
@@ -4641,10 +4640,10 @@
         <v>290</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>251</v>
@@ -4658,16 +4657,16 @@
         <v>290</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110" ht="41.65" spans="1:5">
@@ -4675,16 +4674,16 @@
         <v>290</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" ht="41.65" spans="1:5">
@@ -4692,16 +4691,16 @@
         <v>290</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="112" ht="41.65" spans="1:5">
@@ -4709,16 +4708,16 @@
         <v>290</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" ht="55.5" spans="1:5">
@@ -4726,16 +4725,16 @@
         <v>290</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" ht="55.5" spans="1:5">
@@ -4743,16 +4742,16 @@
         <v>290</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>191</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4760,10 +4759,10 @@
         <v>290</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>19</v>
@@ -4777,10 +4776,10 @@
         <v>290</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>19</v>
@@ -4794,10 +4793,10 @@
         <v>290</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>19</v>
@@ -4811,10 +4810,10 @@
         <v>290</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>19</v>
@@ -4828,16 +4827,16 @@
         <v>290</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" ht="83.25" spans="1:5">
@@ -4845,16 +4844,16 @@
         <v>290</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4862,13 +4861,13 @@
         <v>290</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E121" s="6"/>
     </row>
@@ -4877,13 +4876,13 @@
         <v>290</v>
       </c>
       <c r="B122" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="E122" s="6"/>
     </row>
@@ -4892,13 +4891,13 @@
         <v>290</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E123" s="6"/>
     </row>
@@ -4907,13 +4906,13 @@
         <v>290</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E124" s="6"/>
     </row>
@@ -4922,13 +4921,13 @@
         <v>290</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E125" s="6"/>
     </row>
@@ -4937,13 +4936,13 @@
         <v>290</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E126" s="6"/>
     </row>
@@ -4952,13 +4951,13 @@
         <v>290</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E127" s="6"/>
     </row>
@@ -4967,13 +4966,13 @@
         <v>290</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E128" s="6"/>
     </row>
@@ -4982,13 +4981,13 @@
         <v>290</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E129" s="6"/>
     </row>
@@ -4997,13 +4996,13 @@
         <v>290</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E130" s="6"/>
     </row>
@@ -5012,13 +5011,13 @@
         <v>290</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E131" s="6"/>
     </row>
@@ -5027,13 +5026,13 @@
         <v>290</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E132" s="6"/>
     </row>
@@ -5042,13 +5041,13 @@
         <v>290</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E133" s="6"/>
     </row>
@@ -5057,13 +5056,13 @@
         <v>290</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E134" s="6"/>
     </row>
@@ -5072,13 +5071,13 @@
         <v>290</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E135" s="6"/>
     </row>
@@ -5087,13 +5086,13 @@
         <v>290</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E136" s="6"/>
     </row>
@@ -5102,13 +5101,13 @@
         <v>290</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E137" s="6"/>
     </row>
@@ -5117,13 +5116,13 @@
         <v>290</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E138" s="6"/>
     </row>
@@ -5132,13 +5131,13 @@
         <v>290</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E139" s="6"/>
     </row>
@@ -5147,13 +5146,13 @@
         <v>290</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E140" s="6"/>
     </row>
@@ -5162,13 +5161,13 @@
         <v>290</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E141" s="6"/>
     </row>
@@ -5177,13 +5176,13 @@
         <v>290</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E142" s="6"/>
     </row>
@@ -5192,13 +5191,13 @@
         <v>290</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E143" s="6"/>
     </row>
@@ -5207,13 +5206,13 @@
         <v>290</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E144" s="6"/>
     </row>
@@ -5222,13 +5221,13 @@
         <v>290</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E145" s="6"/>
     </row>
@@ -5237,13 +5236,13 @@
         <v>290</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E146" s="6"/>
     </row>
@@ -5252,13 +5251,13 @@
         <v>290</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E147" s="6"/>
     </row>
@@ -5267,13 +5266,13 @@
         <v>290</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E148" s="6"/>
     </row>
@@ -5288,7 +5287,7 @@
         <v>308</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E149" s="6"/>
     </row>
@@ -5297,13 +5296,13 @@
         <v>290</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E150" s="6"/>
     </row>
@@ -5312,13 +5311,13 @@
         <v>290</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E151" s="6"/>
     </row>
@@ -5327,13 +5326,13 @@
         <v>290</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>296</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E152" s="6"/>
     </row>
@@ -5342,13 +5341,13 @@
         <v>290</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E153" s="6"/>
     </row>
@@ -5357,13 +5356,13 @@
         <v>290</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E154" s="6"/>
     </row>
@@ -5372,13 +5371,13 @@
         <v>290</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E155" s="6"/>
     </row>
@@ -5387,13 +5386,13 @@
         <v>290</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E156" s="6"/>
     </row>
@@ -5402,13 +5401,13 @@
         <v>290</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E157" s="6"/>
     </row>
@@ -5417,13 +5416,13 @@
         <v>290</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E158" s="6"/>
     </row>
@@ -5432,13 +5431,13 @@
         <v>290</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E159" s="6"/>
     </row>
@@ -5447,13 +5446,13 @@
         <v>290</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E160" s="6"/>
     </row>
@@ -5462,13 +5461,13 @@
         <v>290</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E161" s="6"/>
     </row>
@@ -5477,13 +5476,13 @@
         <v>290</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E162" s="6"/>
     </row>
@@ -5492,16 +5491,16 @@
         <v>205</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" ht="41.65" spans="1:5">
@@ -5509,16 +5508,16 @@
         <v>205</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" ht="41.65" spans="1:5">
@@ -5526,10 +5525,10 @@
         <v>205</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>263</v>
@@ -5543,16 +5542,16 @@
         <v>210</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5560,10 +5559,10 @@
         <v>205</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>19</v>
@@ -5577,10 +5576,10 @@
         <v>205</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>19</v>
@@ -5594,10 +5593,10 @@
         <v>205</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>19</v>
@@ -5611,10 +5610,10 @@
         <v>205</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>19</v>
@@ -5628,10 +5627,10 @@
         <v>205</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>19</v>
@@ -5645,10 +5644,10 @@
         <v>205</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>19</v>
@@ -5662,10 +5661,10 @@
         <v>205</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>19</v>
@@ -5679,10 +5678,10 @@
         <v>205</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>19</v>
@@ -5696,10 +5695,10 @@
         <v>205</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>19</v>
@@ -5713,10 +5712,10 @@
         <v>205</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>19</v>
@@ -5730,10 +5729,10 @@
         <v>205</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>19</v>
@@ -5747,10 +5746,10 @@
         <v>205</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>19</v>
@@ -5764,10 +5763,10 @@
         <v>205</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>19</v>
@@ -5781,10 +5780,10 @@
         <v>205</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>19</v>
@@ -5798,10 +5797,10 @@
         <v>205</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>19</v>
@@ -5815,10 +5814,10 @@
         <v>197</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>19</v>
@@ -5832,10 +5831,10 @@
         <v>197</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>19</v>
@@ -5849,10 +5848,10 @@
         <v>197</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>19</v>
@@ -5866,10 +5865,10 @@
         <v>202</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>19</v>
@@ -5883,10 +5882,10 @@
         <v>202</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>19</v>
@@ -5900,10 +5899,10 @@
         <v>202</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>19</v>
@@ -5917,16 +5916,16 @@
         <v>218</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" ht="55.5" spans="1:5">
@@ -5934,16 +5933,16 @@
         <v>218</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" ht="55.5" spans="1:5">
@@ -5951,16 +5950,16 @@
         <v>218</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" ht="27.75" spans="1:5">
@@ -5968,16 +5967,16 @@
         <v>218</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>255</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" ht="55.5" spans="1:5">
@@ -5985,16 +5984,16 @@
         <v>218</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" ht="27.75" spans="1:5">
@@ -6002,16 +6001,16 @@
         <v>218</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>231</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" ht="27.75" spans="1:5">
@@ -6019,16 +6018,16 @@
         <v>218</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" ht="41.65" spans="1:5">
@@ -6036,16 +6035,16 @@
         <v>218</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="1" ht="69.4" spans="1:5">
@@ -6053,16 +6052,16 @@
         <v>218</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="1" ht="55.5" spans="1:5">
@@ -6070,16 +6069,16 @@
         <v>218</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="198" ht="111" spans="1:5">
@@ -6087,16 +6086,16 @@
         <v>218</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199" ht="69.4" spans="1:5">
@@ -6104,16 +6103,16 @@
         <v>218</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" ht="41.65" spans="1:5">
@@ -6121,16 +6120,16 @@
         <v>218</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="201" ht="69.4" spans="1:5">
@@ -6138,16 +6137,16 @@
         <v>218</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6155,10 +6154,10 @@
         <v>218</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>19</v>
@@ -6172,7 +6171,7 @@
         <v>218</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>220</v>
@@ -6189,10 +6188,10 @@
         <v>218</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>19</v>
@@ -6206,10 +6205,10 @@
         <v>218</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>19</v>
@@ -6223,10 +6222,10 @@
         <v>218</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>19</v>
@@ -6240,10 +6239,10 @@
         <v>218</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>19</v>
@@ -6257,10 +6256,10 @@
         <v>218</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>19</v>
@@ -6274,10 +6273,10 @@
         <v>218</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>19</v>
@@ -6291,10 +6290,10 @@
         <v>218</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>19</v>
@@ -6308,10 +6307,10 @@
         <v>218</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>19</v>
@@ -6325,16 +6324,16 @@
         <v>218</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="213" ht="13" customHeight="1" spans="1:5">
@@ -6342,16 +6341,16 @@
         <v>218</v>
       </c>
       <c r="B213" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E213" s="10" t="s">
         <v>563</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="214" ht="69.4" spans="1:5">
@@ -6359,16 +6358,16 @@
         <v>218</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="215" ht="69.4" spans="1:5">
@@ -6376,16 +6375,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="216" ht="69.4" spans="1:5">
@@ -6393,50 +6392,50 @@
         <v>218</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="217" ht="41.65" spans="1:5">
       <c r="A217" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="218" ht="41.65" spans="1:5">
       <c r="A218" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6444,10 +6443,10 @@
         <v>215</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>19</v>
@@ -6461,10 +6460,10 @@
         <v>287</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>19</v>
@@ -6478,10 +6477,10 @@
         <v>287</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>19</v>
@@ -6495,10 +6494,10 @@
         <v>287</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>19</v>
@@ -6512,10 +6511,10 @@
         <v>287</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>19</v>
